--- a/excels/16x16_utility.xlsx
+++ b/excels/16x16_utility.xlsx
@@ -1,16 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yz33/Documents/github/breathingLight/excels/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{604D7E32-E446-594D-85F7-2DC17F771A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="19620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -45,7 +60,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -826,49 +841,7 @@
     <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -878,6 +851,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1202,21 +1183,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="17" width="6" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
     <col min="20" max="20" width="8.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" customHeight="1">
+    <row r="1" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="1">
         <v>0</v>
@@ -1268,13 +1249,11 @@
       </c>
       <c r="R1" s="1"/>
     </row>
-    <row r="2" spans="1:18" ht="36" customHeight="1">
+    <row r="2" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
+      <c r="B2" s="7"/>
       <c r="C2" s="7"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
@@ -1289,81 +1268,121 @@
       <c r="N2" s="7"/>
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
-      <c r="Q2" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q2" s="7"/>
       <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:18" ht="36" customHeight="1">
+    <row r="3" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" s="7"/>
-      <c r="C3" s="7">
-        <v>1</v>
-      </c>
+      <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
+      <c r="F3" s="7">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>1</v>
+      </c>
+      <c r="H3" s="7">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>1</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>1</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
       <c r="M3" s="7"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
-      <c r="P3" s="7">
-        <v>1</v>
-      </c>
+      <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:18" ht="36" customHeight="1">
+    <row r="4" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
-      <c r="D4" s="7">
-        <v>1</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>1</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>1</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
       <c r="N4" s="7"/>
-      <c r="O4" s="7">
-        <v>1</v>
-      </c>
+      <c r="O4" s="7"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" ht="36" customHeight="1">
+    <row r="5" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
       <c r="E5" s="7">
         <v>1</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
+      <c r="F5" s="7">
+        <v>1</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>1</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
       <c r="N5" s="7">
         <v>1</v>
       </c>
@@ -1372,215 +1391,387 @@
       <c r="Q5" s="7"/>
       <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" ht="36" customHeight="1">
+    <row r="6" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
+      <c r="C6" s="7">
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
       <c r="F6" s="7">
         <v>1</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
+      <c r="G6" s="7">
+        <v>1</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>1</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
       <c r="M6" s="7">
         <v>1</v>
       </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
+      <c r="N6" s="7">
+        <v>1</v>
+      </c>
+      <c r="O6" s="7">
+        <v>1</v>
+      </c>
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:18" ht="36" customHeight="1">
+    <row r="7" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1</v>
+      </c>
       <c r="G7" s="7">
         <v>1</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>1</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>1</v>
+      </c>
       <c r="L7" s="7">
         <v>1</v>
       </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
+      <c r="M7" s="7">
+        <v>1</v>
+      </c>
+      <c r="N7" s="7">
+        <v>1</v>
+      </c>
+      <c r="O7" s="7">
+        <v>1</v>
+      </c>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:18" ht="36" customHeight="1">
+    <row r="8" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
+      <c r="C8" s="7">
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7">
+        <v>1</v>
+      </c>
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="I8" s="7">
+        <v>1</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
       <c r="K8" s="7">
         <v>1</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1</v>
+      </c>
+      <c r="O8" s="7">
+        <v>1</v>
+      </c>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="36" customHeight="1">
+    <row r="9" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
+      <c r="C9" s="7">
+        <v>1</v>
+      </c>
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>1</v>
+      </c>
+      <c r="G9" s="7">
+        <v>1</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
       <c r="I9" s="7">
         <v>1</v>
       </c>
       <c r="J9" s="7">
         <v>1</v>
       </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
+      <c r="K9" s="7">
+        <v>1</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>1</v>
+      </c>
+      <c r="N9" s="7">
+        <v>1</v>
+      </c>
+      <c r="O9" s="7">
+        <v>1</v>
+      </c>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="36" customHeight="1">
+    <row r="10" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>1</v>
+      </c>
+      <c r="G10" s="7">
+        <v>1</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
       <c r="I10" s="7">
         <v>1</v>
       </c>
       <c r="J10" s="7">
         <v>1</v>
       </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
+      <c r="K10" s="7">
+        <v>1</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>1</v>
+      </c>
+      <c r="N10" s="7">
+        <v>1</v>
+      </c>
+      <c r="O10" s="7">
+        <v>1</v>
+      </c>
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="36" customHeight="1">
+    <row r="11" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
+      <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="7">
+        <v>1</v>
+      </c>
       <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
+      <c r="I11" s="7">
+        <v>1</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
       <c r="K11" s="7">
         <v>1</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>1</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1</v>
+      </c>
+      <c r="O11" s="7">
+        <v>1</v>
+      </c>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="36" customHeight="1">
+    <row r="12" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="C12" s="7">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
       <c r="G12" s="7">
         <v>1</v>
       </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>1</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>1</v>
+      </c>
       <c r="L12" s="7">
         <v>1</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
+      <c r="M12" s="7">
+        <v>1</v>
+      </c>
+      <c r="N12" s="7">
+        <v>1</v>
+      </c>
+      <c r="O12" s="7">
+        <v>1</v>
+      </c>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:18" ht="36" customHeight="1">
+    <row r="13" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="D13" s="7">
+        <v>1</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
       <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="G13" s="7">
+        <v>1</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>1</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
       <c r="M13" s="7">
         <v>1</v>
       </c>
-      <c r="N13" s="7"/>
+      <c r="N13" s="7">
+        <v>1</v>
+      </c>
       <c r="O13" s="7"/>
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:18" ht="36" customHeight="1">
+    <row r="14" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1590,56 +1781,78 @@
       <c r="E14" s="7">
         <v>1</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="7">
+        <v>1</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>1</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>1</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>1</v>
+      </c>
+      <c r="N14" s="7"/>
       <c r="O14" s="7"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:18" ht="36" customHeight="1">
+    <row r="15" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
-      <c r="D15" s="7">
-        <v>1</v>
-      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="7">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>1</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>1</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
-      <c r="O15" s="7">
-        <v>1</v>
-      </c>
+      <c r="O15" s="7"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:18" ht="36" customHeight="1">
+    <row r="16" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16" s="7"/>
-      <c r="C16" s="7">
-        <v>1</v>
-      </c>
+      <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
@@ -1652,19 +1865,15 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
-      <c r="P16" s="7">
-        <v>1</v>
-      </c>
+      <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="1:18" ht="36" customHeight="1">
+    <row r="17" spans="1:18" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="7">
-        <v>1</v>
-      </c>
+      <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
@@ -1679,12 +1888,10 @@
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="7">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="7"/>
       <c r="R17" s="1"/>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1704,7 +1911,7 @@
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1724,7 +1931,7 @@
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
     </row>
-    <row r="20" spans="1:18" s="2" customFormat="1">
+    <row r="20" spans="1:18" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>0</v>
       </c>
@@ -1735,18 +1942,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="B21" s="5">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="C21" s="5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -1756,10 +1963,10 @@
       <c r="C22" s="3"/>
       <c r="H22" t="str">
         <f>CONCATENATE(C23,C24,C25,C26,C27,C28,C29,C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C40,C41,C42,C43,C44,C45,C46,C47,)</f>
-        <v>mapLEDXY(0,0,0,0,10);mapLEDXY(0,15,0,0,10);mapLEDXY(1,1,0,0,10);</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>mapLEDXY(1,4,207,60,245);mapLEDXY(1,5,207,60,245);mapLEDXY(1,6,207,60,245);mapLEDXY(1,7,207,60,245);mapLEDXY(1,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1768,14 +1975,14 @@
       </c>
       <c r="C23" t="str">
         <f>IF(B2&gt;0,"mapLEDXY("&amp;A23&amp;","&amp;B23&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v>mapLEDXY(0,0,0,0,10);</v>
+        <v/>
       </c>
       <c r="H23" t="str">
         <f>CONCATENATE(C48,C49,C50,C51,C52,C53,C54,C55,C56,C57,C58,C59,C60,C61,C62,C63,C64,C65,C66,C67,C68,C69,C70,C71,C72,)</f>
-        <v>mapLEDXY(1,14,0,0,10);mapLEDXY(2,2,0,0,10);mapLEDXY(2,13,0,0,10);</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>mapLEDXY(1,9,207,60,245);mapLEDXY(1,10,207,60,245);mapLEDXY(2,3,207,60,245);mapLEDXY(2,4,207,60,245);mapLEDXY(2,5,207,60,245);mapLEDXY(2,6,207,60,245);mapLEDXY(2,7,207,60,245);mapLEDXY(2,8,207,60,245);mapLEDXY(2,9,207,60,245);mapLEDXY(2,10,207,60,245);mapLEDXY(2,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1788,10 +1995,10 @@
       </c>
       <c r="H24" t="str">
         <f>CONCATENATE(C73,C74,C75,C76,C77,C78,C79,C80,C81,C82,C83,C84,C85,C86,C87,C88,C89,C90,C91,C92,C93,C94,C95,C96,C97,)</f>
-        <v>mapLEDXY(3,3,0,0,10);mapLEDXY(3,12,0,0,10);mapLEDXY(4,4,0,0,10);</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>mapLEDXY(3,2,207,60,245);mapLEDXY(3,3,207,60,245);mapLEDXY(3,4,207,60,245);mapLEDXY(3,5,207,60,245);mapLEDXY(3,6,207,60,245);mapLEDXY(3,7,207,60,245);mapLEDXY(3,8,207,60,245);mapLEDXY(3,9,207,60,245);mapLEDXY(3,10,207,60,245);mapLEDXY(3,11,207,60,245);mapLEDXY(3,12,207,60,245);mapLEDXY(4,1,207,60,245);mapLEDXY(4,2,207,60,245);mapLEDXY(4,3,207,60,245);mapLEDXY(4,4,207,60,245);mapLEDXY(4,5,207,60,245);mapLEDXY(4,6,207,60,245);mapLEDXY(4,7,207,60,245);mapLEDXY(4,8,207,60,245);mapLEDXY(4,9,207,60,245);mapLEDXY(4,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1804,10 +2011,10 @@
       </c>
       <c r="H25" t="str">
         <f>CONCATENATE(C98,C99,C100,C101,C102,C103,C104,C105,C106,C107,C108,C109,C110,C111,C112,C113,C114,C115,C116,C117,C118,C119,C120,C121,C122,)</f>
-        <v>mapLEDXY(4,11,0,0,10);mapLEDXY(5,5,0,0,10);mapLEDXY(5,10,0,0,10);</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+        <v>mapLEDXY(4,11,207,60,245);mapLEDXY(4,12,207,60,245);mapLEDXY(4,13,207,60,245);mapLEDXY(5,1,207,60,245);mapLEDXY(5,2,207,60,245);mapLEDXY(5,3,207,60,245);mapLEDXY(5,4,207,60,245);mapLEDXY(5,5,207,60,245);mapLEDXY(5,6,207,60,245);mapLEDXY(5,7,207,60,245);mapLEDXY(5,8,207,60,245);mapLEDXY(5,9,207,60,245);mapLEDXY(5,10,207,60,245);mapLEDXY(5,11,207,60,245);mapLEDXY(5,12,207,60,245);mapLEDXY(5,13,207,60,245);mapLEDXY(6,1,207,60,245);mapLEDXY(6,2,207,60,245);mapLEDXY(6,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1820,10 +2027,10 @@
       </c>
       <c r="H26" t="str">
         <f>CONCATENATE(C123,C124,C125,C126,C127,C128,C129,C130,C131,C132,C133,C134,C135,C136,C137,C138,C139,C140,C141,C142,C143,C144,C145,C146,C147,)</f>
-        <v>mapLEDXY(6,6,0,0,10);mapLEDXY(6,9,0,0,10);mapLEDXY(7,7,0,0,10);mapLEDXY(7,8,0,0,10);</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+        <v>mapLEDXY(6,4,207,60,245);mapLEDXY(6,5,207,60,245);mapLEDXY(6,6,207,60,245);mapLEDXY(6,7,207,60,245);mapLEDXY(6,8,207,60,245);mapLEDXY(6,9,207,60,245);mapLEDXY(6,10,207,60,245);mapLEDXY(6,11,207,60,245);mapLEDXY(6,12,207,60,245);mapLEDXY(6,13,207,60,245);mapLEDXY(7,1,207,60,245);mapLEDXY(7,2,207,60,245);mapLEDXY(7,3,207,60,245);mapLEDXY(7,4,207,60,245);mapLEDXY(7,5,207,60,245);mapLEDXY(7,6,207,60,245);mapLEDXY(7,7,207,60,245);mapLEDXY(7,8,207,60,245);mapLEDXY(7,9,207,60,245);mapLEDXY(7,10,207,60,245);mapLEDXY(7,11,207,60,245);mapLEDXY(7,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1836,10 +2043,10 @@
       </c>
       <c r="H27" t="str">
         <f>CONCATENATE(C148,C149,C150,C151,C152,C153,C154,C155,C156,C157,C158,C159,C160,C161,C162,C163,C164,C165,C166,C167,C168,C169,C170,C171,C172,)</f>
-        <v>mapLEDXY(8,7,0,0,10);mapLEDXY(8,8,0,0,10);</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+        <v>mapLEDXY(7,13,207,60,245);mapLEDXY(8,1,207,60,245);mapLEDXY(8,2,207,60,245);mapLEDXY(8,3,207,60,245);mapLEDXY(8,4,207,60,245);mapLEDXY(8,5,207,60,245);mapLEDXY(8,6,207,60,245);mapLEDXY(8,7,207,60,245);mapLEDXY(8,8,207,60,245);mapLEDXY(8,9,207,60,245);mapLEDXY(8,10,207,60,245);mapLEDXY(8,11,207,60,245);mapLEDXY(8,12,207,60,245);mapLEDXY(8,13,207,60,245);mapLEDXY(9,1,207,60,245);mapLEDXY(9,2,207,60,245);mapLEDXY(9,3,207,60,245);mapLEDXY(9,4,207,60,245);mapLEDXY(9,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1852,10 +2059,10 @@
       </c>
       <c r="H28" t="str">
         <f>CONCATENATE(C173,C174,C175,C176,C177,C178,C179,C180,C181,C182,C183,C184,C185,C186,C187,C188,C189,C190,C191,C192,C193,C194,C195,C196,C197,)</f>
-        <v>mapLEDXY(9,6,0,0,10);mapLEDXY(9,9,0,0,10);mapLEDXY(10,5,0,0,10);mapLEDXY(10,10,0,0,10);</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+        <v>mapLEDXY(9,6,207,60,245);mapLEDXY(9,7,207,60,245);mapLEDXY(9,8,207,60,245);mapLEDXY(9,9,207,60,245);mapLEDXY(9,10,207,60,245);mapLEDXY(9,11,207,60,245);mapLEDXY(9,12,207,60,245);mapLEDXY(9,13,207,60,245);mapLEDXY(10,1,207,60,245);mapLEDXY(10,2,207,60,245);mapLEDXY(10,3,207,60,245);mapLEDXY(10,4,207,60,245);mapLEDXY(10,5,207,60,245);mapLEDXY(10,6,207,60,245);mapLEDXY(10,7,207,60,245);mapLEDXY(10,8,207,60,245);mapLEDXY(10,9,207,60,245);mapLEDXY(10,10,207,60,245);mapLEDXY(10,11,207,60,245);mapLEDXY(10,12,207,60,245);mapLEDXY(10,13,207,60,245);</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1868,10 +2075,10 @@
       </c>
       <c r="H29" t="str">
         <f>CONCATENATE(C198,C199,C200,C201,C202,C203,C204,C205,C206,C207,C208,C209,C210,C211,C212,C213,C214,C215,C216,C217,C218,C219,C220,C221,C222,)</f>
-        <v>mapLEDXY(11,4,0,0,10);mapLEDXY(11,11,0,0,10);mapLEDXY(12,3,0,0,10);</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18">
+        <v>mapLEDXY(11,2,207,60,245);mapLEDXY(11,3,207,60,245);mapLEDXY(11,4,207,60,245);mapLEDXY(11,5,207,60,245);mapLEDXY(11,6,207,60,245);mapLEDXY(11,7,207,60,245);mapLEDXY(11,8,207,60,245);mapLEDXY(11,9,207,60,245);mapLEDXY(11,10,207,60,245);mapLEDXY(11,11,207,60,245);mapLEDXY(11,12,207,60,245);mapLEDXY(12,3,207,60,245);mapLEDXY(12,4,207,60,245);mapLEDXY(12,5,207,60,245);mapLEDXY(12,6,207,60,245);mapLEDXY(12,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1884,10 +2091,10 @@
       </c>
       <c r="H30" t="str">
         <f>CONCATENATE(C223,C224,C225,C226,C227,C228,C229,C230,C231,C232,C233,C234,C235,C236,C237,C238,C239,C240,C241,C242,C243,C244,C245,C246,C247,)</f>
-        <v>mapLEDXY(12,12,0,0,10);mapLEDXY(13,2,0,0,10);mapLEDXY(13,13,0,0,10);</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18">
+        <v>mapLEDXY(12,8,207,60,245);mapLEDXY(12,9,207,60,245);mapLEDXY(12,10,207,60,245);mapLEDXY(12,11,207,60,245);mapLEDXY(13,4,207,60,245);mapLEDXY(13,5,207,60,245);mapLEDXY(13,6,207,60,245);mapLEDXY(13,7,207,60,245);mapLEDXY(13,8,207,60,245);mapLEDXY(13,9,207,60,245);mapLEDXY(13,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1900,10 +2107,10 @@
       </c>
       <c r="H31" t="str">
         <f>CONCATENATE(C248,C249,C250,C251,C252,C253,C254,C255,C256,C257,C258,C259,C260,C261,C262,C263,C264,C265,C266,C267,C268,C269,C270,C271,C272,)</f>
-        <v>mapLEDXY(14,1,0,0,10);mapLEDXY(14,14,0,0,10);mapLEDXY(15,0,0,0,10);</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18">
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>0</v>
       </c>
@@ -1916,10 +2123,10 @@
       </c>
       <c r="H32" t="str">
         <f>CONCATENATE(C273,C274,C275,C276,C277,C278,)</f>
-        <v>mapLEDXY(15,15,0,0,10);</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0</v>
       </c>
@@ -1931,7 +2138,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="33">
+    <row r="34" spans="1:8" ht="34" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>0</v>
       </c>
@@ -1947,10 +2154,10 @@
       </c>
       <c r="H34" s="4" t="str">
         <f>CONCATENATE(H22,H23,H24,H25,H26,H27,H28,H29,H30,H31,H32)</f>
-        <v>mapLEDXY(0,0,0,0,10);mapLEDXY(0,15,0,0,10);mapLEDXY(1,1,0,0,10);mapLEDXY(1,14,0,0,10);mapLEDXY(2,2,0,0,10);mapLEDXY(2,13,0,0,10);mapLEDXY(3,3,0,0,10);mapLEDXY(3,12,0,0,10);mapLEDXY(4,4,0,0,10);mapLEDXY(4,11,0,0,10);mapLEDXY(5,5,0,0,10);mapLEDXY(5,10,0,0,10);mapLEDXY(6,6,0,0,10);mapLEDXY(6,9,0,0,10);mapLEDXY(7,7,0,0,10);mapLEDXY(7,8,0,0,10);mapLEDXY(8,7,0,0,10);mapLEDXY(8,8,0,0,10);mapLEDXY(9,6,0,0,10);mapLEDXY(9,9,0,0,10);mapLEDXY(10,5,0,0,10);mapLEDXY(10,10,0,0,10);mapLEDXY(11,4,0,0,10);mapLEDXY(11,11,0,0,10);mapLEDXY(12,3,0,0,10);mapLEDXY(12,12,0,0,10);mapLEDXY(13,2,0,0,10);mapLEDXY(13,13,0,0,10);mapLEDXY(14,1,0,0,10);mapLEDXY(14,14,0,0,10);mapLEDXY(15,0,0,0,10);mapLEDXY(15,15,0,0,10);</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>mapLEDXY(1,4,207,60,245);mapLEDXY(1,5,207,60,245);mapLEDXY(1,6,207,60,245);mapLEDXY(1,7,207,60,245);mapLEDXY(1,8,207,60,245);mapLEDXY(1,9,207,60,245);mapLEDXY(1,10,207,60,245);mapLEDXY(2,3,207,60,245);mapLEDXY(2,4,207,60,245);mapLEDXY(2,5,207,60,245);mapLEDXY(2,6,207,60,245);mapLEDXY(2,7,207,60,245);mapLEDXY(2,8,207,60,245);mapLEDXY(2,9,207,60,245);mapLEDXY(2,10,207,60,245);mapLEDXY(2,11,207,60,245);mapLEDXY(3,2,207,60,245);mapLEDXY(3,3,207,60,245);mapLEDXY(3,4,207,60,245);mapLEDXY(3,5,207,60,245);mapLEDXY(3,6,207,60,245);mapLEDXY(3,7,207,60,245);mapLEDXY(3,8,207,60,245);mapLEDXY(3,9,207,60,245);mapLEDXY(3,10,207,60,245);mapLEDXY(3,11,207,60,245);mapLEDXY(3,12,207,60,245);mapLEDXY(4,1,207,60,245);mapLEDXY(4,2,207,60,245);mapLEDXY(4,3,207,60,245);mapLEDXY(4,4,207,60,245);mapLEDXY(4,5,207,60,245);mapLEDXY(4,6,207,60,245);mapLEDXY(4,7,207,60,245);mapLEDXY(4,8,207,60,245);mapLEDXY(4,9,207,60,245);mapLEDXY(4,10,207,60,245);mapLEDXY(4,11,207,60,245);mapLEDXY(4,12,207,60,245);mapLEDXY(4,13,207,60,245);mapLEDXY(5,1,207,60,245);mapLEDXY(5,2,207,60,245);mapLEDXY(5,3,207,60,245);mapLEDXY(5,4,207,60,245);mapLEDXY(5,5,207,60,245);mapLEDXY(5,6,207,60,245);mapLEDXY(5,7,207,60,245);mapLEDXY(5,8,207,60,245);mapLEDXY(5,9,207,60,245);mapLEDXY(5,10,207,60,245);mapLEDXY(5,11,207,60,245);mapLEDXY(5,12,207,60,245);mapLEDXY(5,13,207,60,245);mapLEDXY(6,1,207,60,245);mapLEDXY(6,2,207,60,245);mapLEDXY(6,3,207,60,245);mapLEDXY(6,4,207,60,245);mapLEDXY(6,5,207,60,245);mapLEDXY(6,6,207,60,245);mapLEDXY(6,7,207,60,245);mapLEDXY(6,8,207,60,245);mapLEDXY(6,9,207,60,245);mapLEDXY(6,10,207,60,245);mapLEDXY(6,11,207,60,245);mapLEDXY(6,12,207,60,245);mapLEDXY(6,13,207,60,245);mapLEDXY(7,1,207,60,245);mapLEDXY(7,2,207,60,245);mapLEDXY(7,3,207,60,245);mapLEDXY(7,4,207,60,245);mapLEDXY(7,5,207,60,245);mapLEDXY(7,6,207,60,245);mapLEDXY(7,7,207,60,245);mapLEDXY(7,8,207,60,245);mapLEDXY(7,9,207,60,245);mapLEDXY(7,10,207,60,245);mapLEDXY(7,11,207,60,245);mapLEDXY(7,12,207,60,245);mapLEDXY(7,13,207,60,245);mapLEDXY(8,1,207,60,245);mapLEDXY(8,2,207,60,245);mapLEDXY(8,3,207,60,245);mapLEDXY(8,4,207,60,245);mapLEDXY(8,5,207,60,245);mapLEDXY(8,6,207,60,245);mapLEDXY(8,7,207,60,245);mapLEDXY(8,8,207,60,245);mapLEDXY(8,9,207,60,245);mapLEDXY(8,10,207,60,245);mapLEDXY(8,11,207,60,245);mapLEDXY(8,12,207,60,245);mapLEDXY(8,13,207,60,245);mapLEDXY(9,1,207,60,245);mapLEDXY(9,2,207,60,245);mapLEDXY(9,3,207,60,245);mapLEDXY(9,4,207,60,245);mapLEDXY(9,5,207,60,245);mapLEDXY(9,6,207,60,245);mapLEDXY(9,7,207,60,245);mapLEDXY(9,8,207,60,245);mapLEDXY(9,9,207,60,245);mapLEDXY(9,10,207,60,245);mapLEDXY(9,11,207,60,245);mapLEDXY(9,12,207,60,245);mapLEDXY(9,13,207,60,245);mapLEDXY(10,1,207,60,245);mapLEDXY(10,2,207,60,245);mapLEDXY(10,3,207,60,245);mapLEDXY(10,4,207,60,245);mapLEDXY(10,5,207,60,245);mapLEDXY(10,6,207,60,245);mapLEDXY(10,7,207,60,245);mapLEDXY(10,8,207,60,245);mapLEDXY(10,9,207,60,245);mapLEDXY(10,10,207,60,245);mapLEDXY(10,11,207,60,245);mapLEDXY(10,12,207,60,245);mapLEDXY(10,13,207,60,245);mapLEDXY(11,2,207,60,245);mapLEDXY(11,3,207,60,245);mapLEDXY(11,4,207,60,245);mapLEDXY(11,5,207,60,245);mapLEDXY(11,6,207,60,245);mapLEDXY(11,7,207,60,245);mapLEDXY(11,8,207,60,245);mapLEDXY(11,9,207,60,245);mapLEDXY(11,10,207,60,245);mapLEDXY(11,11,207,60,245);mapLEDXY(11,12,207,60,245);mapLEDXY(12,3,207,60,245);mapLEDXY(12,4,207,60,245);mapLEDXY(12,5,207,60,245);mapLEDXY(12,6,207,60,245);mapLEDXY(12,7,207,60,245);mapLEDXY(12,8,207,60,245);mapLEDXY(12,9,207,60,245);mapLEDXY(12,10,207,60,245);mapLEDXY(12,11,207,60,245);mapLEDXY(13,4,207,60,245);mapLEDXY(13,5,207,60,245);mapLEDXY(13,6,207,60,245);mapLEDXY(13,7,207,60,245);mapLEDXY(13,8,207,60,245);mapLEDXY(13,9,207,60,245);mapLEDXY(13,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0</v>
       </c>
@@ -1965,7 +2172,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0</v>
       </c>
@@ -1977,7 +2184,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0</v>
       </c>
@@ -1989,7 +2196,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>0</v>
       </c>
@@ -1998,10 +2205,10 @@
       </c>
       <c r="C38" t="str">
         <f t="shared" si="0"/>
-        <v>mapLEDXY(0,15,0,0,10);</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -2013,7 +2220,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2022,10 +2229,10 @@
       </c>
       <c r="C40" t="str">
         <f t="shared" ref="C40:C54" si="1">IF(C3&gt;0,"mapLEDXY("&amp;A40&amp;","&amp;B40&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v>mapLEDXY(1,1,0,0,10);</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1</v>
       </c>
@@ -2037,7 +2244,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1</v>
       </c>
@@ -2049,7 +2256,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1</v>
       </c>
@@ -2057,11 +2264,11 @@
         <v>4</v>
       </c>
       <c r="C43" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <f>IF(C6&gt;0,"mapLEDXY("&amp;A43&amp;","&amp;B43&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
+        <v>mapLEDXY(1,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1</v>
       </c>
@@ -2070,10 +2277,10 @@
       </c>
       <c r="C44" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>mapLEDXY(1,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1</v>
       </c>
@@ -2082,10 +2289,10 @@
       </c>
       <c r="C45" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>mapLEDXY(1,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1</v>
       </c>
@@ -2094,10 +2301,10 @@
       </c>
       <c r="C46" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>mapLEDXY(1,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1</v>
       </c>
@@ -2106,10 +2313,10 @@
       </c>
       <c r="C47" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>mapLEDXY(1,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1</v>
       </c>
@@ -2118,10 +2325,10 @@
       </c>
       <c r="C48" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>mapLEDXY(1,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1</v>
       </c>
@@ -2130,10 +2337,10 @@
       </c>
       <c r="C49" t="str">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>mapLEDXY(1,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1</v>
       </c>
@@ -2145,7 +2352,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -2157,7 +2364,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1</v>
       </c>
@@ -2169,7 +2376,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1</v>
       </c>
@@ -2178,10 +2385,10 @@
       </c>
       <c r="C53" t="str">
         <f t="shared" si="1"/>
-        <v>mapLEDXY(1,14,0,0,10);</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1</v>
       </c>
@@ -2193,7 +2400,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>2</v>
       </c>
@@ -2205,7 +2412,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>2</v>
       </c>
@@ -2217,7 +2424,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>2</v>
       </c>
@@ -2226,10 +2433,10 @@
       </c>
       <c r="C57" t="str">
         <f t="shared" si="2"/>
-        <v>mapLEDXY(2,2,0,0,10);</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -2238,10 +2445,10 @@
       </c>
       <c r="C58" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>mapLEDXY(2,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -2250,10 +2457,10 @@
       </c>
       <c r="C59" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>mapLEDXY(2,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2262,10 +2469,10 @@
       </c>
       <c r="C60" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>mapLEDXY(2,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>2</v>
       </c>
@@ -2274,10 +2481,10 @@
       </c>
       <c r="C61" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>mapLEDXY(2,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -2286,10 +2493,10 @@
       </c>
       <c r="C62" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>mapLEDXY(2,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>2</v>
       </c>
@@ -2298,10 +2505,10 @@
       </c>
       <c r="C63" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>mapLEDXY(2,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2</v>
       </c>
@@ -2310,10 +2517,10 @@
       </c>
       <c r="C64" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>mapLEDXY(2,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>2</v>
       </c>
@@ -2322,10 +2529,10 @@
       </c>
       <c r="C65" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>mapLEDXY(2,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>2</v>
       </c>
@@ -2334,10 +2541,10 @@
       </c>
       <c r="C66" t="str">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>mapLEDXY(2,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>2</v>
       </c>
@@ -2349,7 +2556,7 @@
         <v/>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>2</v>
       </c>
@@ -2358,10 +2565,10 @@
       </c>
       <c r="C68" t="str">
         <f t="shared" si="2"/>
-        <v>mapLEDXY(2,13,0,0,10);</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2</v>
       </c>
@@ -2373,7 +2580,7 @@
         <v/>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>2</v>
       </c>
@@ -2385,7 +2592,7 @@
         <v/>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>3</v>
       </c>
@@ -2397,7 +2604,7 @@
         <v/>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>3</v>
       </c>
@@ -2409,7 +2616,7 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>3</v>
       </c>
@@ -2418,10 +2625,10 @@
       </c>
       <c r="C73" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>mapLEDXY(3,2,207,60,245);</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>3</v>
       </c>
@@ -2430,10 +2637,10 @@
       </c>
       <c r="C74" t="str">
         <f t="shared" si="3"/>
-        <v>mapLEDXY(3,3,0,0,10);</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>mapLEDXY(3,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -2442,10 +2649,10 @@
       </c>
       <c r="C75" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>mapLEDXY(3,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2454,10 +2661,10 @@
       </c>
       <c r="C76" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
+        <v>mapLEDXY(3,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>3</v>
       </c>
@@ -2466,10 +2673,10 @@
       </c>
       <c r="C77" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>mapLEDXY(3,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>3</v>
       </c>
@@ -2478,10 +2685,10 @@
       </c>
       <c r="C78" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>mapLEDXY(3,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>3</v>
       </c>
@@ -2490,10 +2697,10 @@
       </c>
       <c r="C79" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>mapLEDXY(3,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>3</v>
       </c>
@@ -2502,10 +2709,10 @@
       </c>
       <c r="C80" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>mapLEDXY(3,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -2514,10 +2721,10 @@
       </c>
       <c r="C81" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>mapLEDXY(3,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>3</v>
       </c>
@@ -2526,10 +2733,10 @@
       </c>
       <c r="C82" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>mapLEDXY(3,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>3</v>
       </c>
@@ -2538,10 +2745,10 @@
       </c>
       <c r="C83" t="str">
         <f t="shared" si="3"/>
-        <v>mapLEDXY(3,12,0,0,10);</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>mapLEDXY(3,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>3</v>
       </c>
@@ -2553,7 +2760,7 @@
         <v/>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2565,7 +2772,7 @@
         <v/>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -2577,7 +2784,7 @@
         <v/>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -2589,7 +2796,7 @@
         <v/>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>4</v>
       </c>
@@ -2598,10 +2805,10 @@
       </c>
       <c r="C88" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>mapLEDXY(4,1,207,60,245);</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>4</v>
       </c>
@@ -2610,10 +2817,10 @@
       </c>
       <c r="C89" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>mapLEDXY(4,2,207,60,245);</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>4</v>
       </c>
@@ -2622,10 +2829,10 @@
       </c>
       <c r="C90" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>mapLEDXY(4,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>4</v>
       </c>
@@ -2634,10 +2841,10 @@
       </c>
       <c r="C91" t="str">
         <f t="shared" si="4"/>
-        <v>mapLEDXY(4,4,0,0,10);</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>mapLEDXY(4,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>4</v>
       </c>
@@ -2646,10 +2853,10 @@
       </c>
       <c r="C92" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>mapLEDXY(4,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>4</v>
       </c>
@@ -2658,10 +2865,10 @@
       </c>
       <c r="C93" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>mapLEDXY(4,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>4</v>
       </c>
@@ -2670,10 +2877,10 @@
       </c>
       <c r="C94" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>mapLEDXY(4,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2682,10 +2889,10 @@
       </c>
       <c r="C95" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>mapLEDXY(4,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>4</v>
       </c>
@@ -2694,10 +2901,10 @@
       </c>
       <c r="C96" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>mapLEDXY(4,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>4</v>
       </c>
@@ -2706,10 +2913,10 @@
       </c>
       <c r="C97" t="str">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>mapLEDXY(4,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>4</v>
       </c>
@@ -2718,10 +2925,10 @@
       </c>
       <c r="C98" t="str">
         <f t="shared" si="4"/>
-        <v>mapLEDXY(4,11,0,0,10);</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>mapLEDXY(4,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4</v>
       </c>
@@ -2730,10 +2937,10 @@
       </c>
       <c r="C99" t="str">
         <f t="shared" ref="C99:C102" si="5">IF(F14&gt;0,"mapLEDXY("&amp;A99&amp;","&amp;B99&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>mapLEDXY(4,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2742,10 +2949,10 @@
       </c>
       <c r="C100" t="str">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>mapLEDXY(4,13,207,60,245);</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2757,7 +2964,7 @@
         <v/>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>4</v>
       </c>
@@ -2769,7 +2976,7 @@
         <v/>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>5</v>
       </c>
@@ -2781,7 +2988,7 @@
         <v/>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>5</v>
       </c>
@@ -2790,10 +2997,10 @@
       </c>
       <c r="C104" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
+        <v>mapLEDXY(5,1,207,60,245);</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2802,10 +3009,10 @@
       </c>
       <c r="C105" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
+        <v>mapLEDXY(5,2,207,60,245);</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5</v>
       </c>
@@ -2814,10 +3021,10 @@
       </c>
       <c r="C106" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
+        <v>mapLEDXY(5,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>5</v>
       </c>
@@ -2826,10 +3033,10 @@
       </c>
       <c r="C107" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
+        <v>mapLEDXY(5,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>5</v>
       </c>
@@ -2838,10 +3045,10 @@
       </c>
       <c r="C108" t="str">
         <f t="shared" si="6"/>
-        <v>mapLEDXY(5,5,0,0,10);</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+        <v>mapLEDXY(5,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>5</v>
       </c>
@@ -2850,10 +3057,10 @@
       </c>
       <c r="C109" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
+        <v>mapLEDXY(5,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>5</v>
       </c>
@@ -2862,10 +3069,10 @@
       </c>
       <c r="C110" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
+        <v>mapLEDXY(5,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>5</v>
       </c>
@@ -2874,10 +3081,10 @@
       </c>
       <c r="C111" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
+        <v>mapLEDXY(5,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>5</v>
       </c>
@@ -2886,10 +3093,10 @@
       </c>
       <c r="C112" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
+        <v>mapLEDXY(5,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>5</v>
       </c>
@@ -2898,10 +3105,10 @@
       </c>
       <c r="C113" t="str">
         <f t="shared" si="6"/>
-        <v>mapLEDXY(5,10,0,0,10);</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
+        <v>mapLEDXY(5,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2910,10 +3117,10 @@
       </c>
       <c r="C114" t="str">
         <f t="shared" si="6"/>
-        <v/>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>mapLEDXY(5,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>5</v>
       </c>
@@ -2922,10 +3129,10 @@
       </c>
       <c r="C115" t="str">
         <f t="shared" ref="C115:C118" si="7">IF(G14&gt;0,"mapLEDXY("&amp;A115&amp;","&amp;B115&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>mapLEDXY(5,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>5</v>
       </c>
@@ -2934,10 +3141,10 @@
       </c>
       <c r="C116" t="str">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>mapLEDXY(5,13,207,60,245);</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>5</v>
       </c>
@@ -2949,7 +3156,7 @@
         <v/>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>5</v>
       </c>
@@ -2961,7 +3168,7 @@
         <v/>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>6</v>
       </c>
@@ -2973,7 +3180,7 @@
         <v/>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>6</v>
       </c>
@@ -2982,10 +3189,10 @@
       </c>
       <c r="C120" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>mapLEDXY(6,1,207,60,245);</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>6</v>
       </c>
@@ -2994,10 +3201,10 @@
       </c>
       <c r="C121" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>mapLEDXY(6,2,207,60,245);</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>6</v>
       </c>
@@ -3006,10 +3213,10 @@
       </c>
       <c r="C122" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
+        <v>mapLEDXY(6,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>6</v>
       </c>
@@ -3018,10 +3225,10 @@
       </c>
       <c r="C123" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>mapLEDXY(6,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>6</v>
       </c>
@@ -3030,10 +3237,10 @@
       </c>
       <c r="C124" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>mapLEDXY(6,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>6</v>
       </c>
@@ -3042,10 +3249,10 @@
       </c>
       <c r="C125" t="str">
         <f t="shared" si="8"/>
-        <v>mapLEDXY(6,6,0,0,10);</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>mapLEDXY(6,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>6</v>
       </c>
@@ -3054,10 +3261,10 @@
       </c>
       <c r="C126" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
+        <v>mapLEDXY(6,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>6</v>
       </c>
@@ -3066,10 +3273,10 @@
       </c>
       <c r="C127" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
+        <v>mapLEDXY(6,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6</v>
       </c>
@@ -3078,10 +3285,10 @@
       </c>
       <c r="C128" t="str">
         <f t="shared" si="8"/>
-        <v>mapLEDXY(6,9,0,0,10);</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
+        <v>mapLEDXY(6,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6</v>
       </c>
@@ -3090,10 +3297,10 @@
       </c>
       <c r="C129" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>mapLEDXY(6,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>6</v>
       </c>
@@ -3102,10 +3309,10 @@
       </c>
       <c r="C130" t="str">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
+        <v>mapLEDXY(6,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>6</v>
       </c>
@@ -3114,10 +3321,10 @@
       </c>
       <c r="C131" t="str">
         <f t="shared" ref="C131:C134" si="9">IF(H14&gt;0,"mapLEDXY("&amp;A131&amp;","&amp;B131&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
+        <v>mapLEDXY(6,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>6</v>
       </c>
@@ -3126,10 +3333,10 @@
       </c>
       <c r="C132" t="str">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
+        <v>mapLEDXY(6,13,207,60,245);</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3141,7 +3348,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>6</v>
       </c>
@@ -3153,7 +3360,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>7</v>
       </c>
@@ -3165,7 +3372,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>7</v>
       </c>
@@ -3174,10 +3381,10 @@
       </c>
       <c r="C136" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
+        <v>mapLEDXY(7,1,207,60,245);</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>7</v>
       </c>
@@ -3186,10 +3393,10 @@
       </c>
       <c r="C137" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+        <v>mapLEDXY(7,2,207,60,245);</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>7</v>
       </c>
@@ -3198,10 +3405,10 @@
       </c>
       <c r="C138" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
+        <v>mapLEDXY(7,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>7</v>
       </c>
@@ -3210,10 +3417,10 @@
       </c>
       <c r="C139" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>mapLEDXY(7,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>7</v>
       </c>
@@ -3222,10 +3429,10 @@
       </c>
       <c r="C140" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
+        <v>mapLEDXY(7,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>7</v>
       </c>
@@ -3234,10 +3441,10 @@
       </c>
       <c r="C141" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>mapLEDXY(7,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>7</v>
       </c>
@@ -3246,10 +3453,10 @@
       </c>
       <c r="C142" t="str">
         <f t="shared" si="10"/>
-        <v>mapLEDXY(7,7,0,0,10);</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>mapLEDXY(7,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>7</v>
       </c>
@@ -3258,10 +3465,10 @@
       </c>
       <c r="C143" t="str">
         <f t="shared" si="10"/>
-        <v>mapLEDXY(7,8,0,0,10);</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
+        <v>mapLEDXY(7,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>7</v>
       </c>
@@ -3270,10 +3477,10 @@
       </c>
       <c r="C144" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
+        <v>mapLEDXY(7,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>7</v>
       </c>
@@ -3282,10 +3489,10 @@
       </c>
       <c r="C145" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>mapLEDXY(7,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>7</v>
       </c>
@@ -3294,10 +3501,10 @@
       </c>
       <c r="C146" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
+        <v>mapLEDXY(7,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>7</v>
       </c>
@@ -3306,10 +3513,10 @@
       </c>
       <c r="C147" t="str">
         <f t="shared" ref="C147:C150" si="11">IF(I14&gt;0,"mapLEDXY("&amp;A147&amp;","&amp;B147&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
+        <v>mapLEDXY(7,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>7</v>
       </c>
@@ -3318,10 +3525,10 @@
       </c>
       <c r="C148" t="str">
         <f t="shared" si="11"/>
-        <v/>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
+        <v>mapLEDXY(7,13,207,60,245);</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7</v>
       </c>
@@ -3333,7 +3540,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>7</v>
       </c>
@@ -3345,7 +3552,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>8</v>
       </c>
@@ -3357,7 +3564,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>8</v>
       </c>
@@ -3366,10 +3573,10 @@
       </c>
       <c r="C152" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
+        <v>mapLEDXY(8,1,207,60,245);</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>8</v>
       </c>
@@ -3378,10 +3585,10 @@
       </c>
       <c r="C153" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
+        <v>mapLEDXY(8,2,207,60,245);</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>8</v>
       </c>
@@ -3390,10 +3597,10 @@
       </c>
       <c r="C154" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="155" spans="1:3">
+        <v>mapLEDXY(8,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>8</v>
       </c>
@@ -3402,10 +3609,10 @@
       </c>
       <c r="C155" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="156" spans="1:3">
+        <v>mapLEDXY(8,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>8</v>
       </c>
@@ -3414,10 +3621,10 @@
       </c>
       <c r="C156" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="157" spans="1:3">
+        <v>mapLEDXY(8,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>8</v>
       </c>
@@ -3426,10 +3633,10 @@
       </c>
       <c r="C157" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="158" spans="1:3">
+        <v>mapLEDXY(8,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>8</v>
       </c>
@@ -3438,10 +3645,10 @@
       </c>
       <c r="C158" t="str">
         <f t="shared" si="12"/>
-        <v>mapLEDXY(8,7,0,0,10);</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3">
+        <v>mapLEDXY(8,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>8</v>
       </c>
@@ -3450,10 +3657,10 @@
       </c>
       <c r="C159" t="str">
         <f t="shared" si="12"/>
-        <v>mapLEDXY(8,8,0,0,10);</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3">
+        <v>mapLEDXY(8,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>8</v>
       </c>
@@ -3462,10 +3669,10 @@
       </c>
       <c r="C160" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="161" spans="1:3">
+        <v>mapLEDXY(8,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>8</v>
       </c>
@@ -3474,10 +3681,10 @@
       </c>
       <c r="C161" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
+        <v>mapLEDXY(8,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>8</v>
       </c>
@@ -3486,10 +3693,10 @@
       </c>
       <c r="C162" t="str">
         <f t="shared" si="12"/>
-        <v/>
-      </c>
-    </row>
-    <row r="163" spans="1:3">
+        <v>mapLEDXY(8,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>8</v>
       </c>
@@ -3498,10 +3705,10 @@
       </c>
       <c r="C163" t="str">
         <f t="shared" ref="C163:C166" si="13">IF(J14&gt;0,"mapLEDXY("&amp;A163&amp;","&amp;B163&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="164" spans="1:3">
+        <v>mapLEDXY(8,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>8</v>
       </c>
@@ -3510,10 +3717,10 @@
       </c>
       <c r="C164" t="str">
         <f t="shared" si="13"/>
-        <v/>
-      </c>
-    </row>
-    <row r="165" spans="1:3">
+        <v>mapLEDXY(8,13,207,60,245);</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>8</v>
       </c>
@@ -3525,7 +3732,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>8</v>
       </c>
@@ -3537,7 +3744,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>9</v>
       </c>
@@ -3549,7 +3756,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>9</v>
       </c>
@@ -3558,10 +3765,10 @@
       </c>
       <c r="C168" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="169" spans="1:3">
+        <v>mapLEDXY(9,1,207,60,245);</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>9</v>
       </c>
@@ -3570,10 +3777,10 @@
       </c>
       <c r="C169" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="170" spans="1:3">
+        <v>mapLEDXY(9,2,207,60,245);</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>9</v>
       </c>
@@ -3582,10 +3789,10 @@
       </c>
       <c r="C170" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
+        <v>mapLEDXY(9,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>9</v>
       </c>
@@ -3594,10 +3801,10 @@
       </c>
       <c r="C171" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="172" spans="1:3">
+        <v>mapLEDXY(9,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>9</v>
       </c>
@@ -3606,10 +3813,10 @@
       </c>
       <c r="C172" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>mapLEDXY(9,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>9</v>
       </c>
@@ -3618,10 +3825,10 @@
       </c>
       <c r="C173" t="str">
         <f t="shared" si="14"/>
-        <v>mapLEDXY(9,6,0,0,10);</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3">
+        <v>mapLEDXY(9,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>9</v>
       </c>
@@ -3630,10 +3837,10 @@
       </c>
       <c r="C174" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="175" spans="1:3">
+        <v>mapLEDXY(9,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>9</v>
       </c>
@@ -3642,10 +3849,10 @@
       </c>
       <c r="C175" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="176" spans="1:3">
+        <v>mapLEDXY(9,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>9</v>
       </c>
@@ -3654,10 +3861,10 @@
       </c>
       <c r="C176" t="str">
         <f t="shared" si="14"/>
-        <v>mapLEDXY(9,9,0,0,10);</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3">
+        <v>mapLEDXY(9,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>9</v>
       </c>
@@ -3666,10 +3873,10 @@
       </c>
       <c r="C177" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="178" spans="1:3">
+        <v>mapLEDXY(9,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>9</v>
       </c>
@@ -3678,10 +3885,10 @@
       </c>
       <c r="C178" t="str">
         <f t="shared" si="14"/>
-        <v/>
-      </c>
-    </row>
-    <row r="179" spans="1:3">
+        <v>mapLEDXY(9,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>9</v>
       </c>
@@ -3690,10 +3897,10 @@
       </c>
       <c r="C179" t="str">
         <f t="shared" ref="C179:C182" si="15">IF(K14&gt;0,"mapLEDXY("&amp;A179&amp;","&amp;B179&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="180" spans="1:3">
+        <v>mapLEDXY(9,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>9</v>
       </c>
@@ -3702,10 +3909,10 @@
       </c>
       <c r="C180" t="str">
         <f t="shared" si="15"/>
-        <v/>
-      </c>
-    </row>
-    <row r="181" spans="1:3">
+        <v>mapLEDXY(9,13,207,60,245);</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>9</v>
       </c>
@@ -3717,7 +3924,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" spans="1:3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>9</v>
       </c>
@@ -3729,7 +3936,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" spans="1:3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>10</v>
       </c>
@@ -3741,7 +3948,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" spans="1:3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>10</v>
       </c>
@@ -3750,10 +3957,10 @@
       </c>
       <c r="C184" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="185" spans="1:3">
+        <v>mapLEDXY(10,1,207,60,245);</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>10</v>
       </c>
@@ -3762,10 +3969,10 @@
       </c>
       <c r="C185" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="186" spans="1:3">
+        <v>mapLEDXY(10,2,207,60,245);</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>10</v>
       </c>
@@ -3774,10 +3981,10 @@
       </c>
       <c r="C186" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="187" spans="1:3">
+        <v>mapLEDXY(10,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>10</v>
       </c>
@@ -3786,10 +3993,10 @@
       </c>
       <c r="C187" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="188" spans="1:3">
+        <v>mapLEDXY(10,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>10</v>
       </c>
@@ -3798,10 +4005,10 @@
       </c>
       <c r="C188" t="str">
         <f t="shared" si="16"/>
-        <v>mapLEDXY(10,5,0,0,10);</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3">
+        <v>mapLEDXY(10,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>10</v>
       </c>
@@ -3810,10 +4017,10 @@
       </c>
       <c r="C189" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="190" spans="1:3">
+        <v>mapLEDXY(10,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>10</v>
       </c>
@@ -3822,10 +4029,10 @@
       </c>
       <c r="C190" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="191" spans="1:3">
+        <v>mapLEDXY(10,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>10</v>
       </c>
@@ -3834,10 +4041,10 @@
       </c>
       <c r="C191" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
+        <v>mapLEDXY(10,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>10</v>
       </c>
@@ -3846,10 +4053,10 @@
       </c>
       <c r="C192" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="193" spans="1:3">
+        <v>mapLEDXY(10,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>10</v>
       </c>
@@ -3858,10 +4065,10 @@
       </c>
       <c r="C193" t="str">
         <f t="shared" si="16"/>
-        <v>mapLEDXY(10,10,0,0,10);</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3">
+        <v>mapLEDXY(10,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>10</v>
       </c>
@@ -3870,10 +4077,10 @@
       </c>
       <c r="C194" t="str">
         <f t="shared" si="16"/>
-        <v/>
-      </c>
-    </row>
-    <row r="195" spans="1:3">
+        <v>mapLEDXY(10,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>10</v>
       </c>
@@ -3882,10 +4089,10 @@
       </c>
       <c r="C195" t="str">
         <f t="shared" ref="C195:C198" si="17">IF(L14&gt;0,"mapLEDXY("&amp;A195&amp;","&amp;B195&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="196" spans="1:3">
+        <v>mapLEDXY(10,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>10</v>
       </c>
@@ -3894,10 +4101,10 @@
       </c>
       <c r="C196" t="str">
         <f t="shared" si="17"/>
-        <v/>
-      </c>
-    </row>
-    <row r="197" spans="1:3">
+        <v>mapLEDXY(10,13,207,60,245);</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>10</v>
       </c>
@@ -3909,7 +4116,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>10</v>
       </c>
@@ -3921,7 +4128,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>11</v>
       </c>
@@ -3933,7 +4140,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>11</v>
       </c>
@@ -3945,7 +4152,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>11</v>
       </c>
@@ -3954,10 +4161,10 @@
       </c>
       <c r="C201" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="202" spans="1:3">
+        <v>mapLEDXY(11,2,207,60,245);</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>11</v>
       </c>
@@ -3966,10 +4173,10 @@
       </c>
       <c r="C202" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="203" spans="1:3">
+        <v>mapLEDXY(11,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>11</v>
       </c>
@@ -3978,10 +4185,10 @@
       </c>
       <c r="C203" t="str">
         <f t="shared" si="18"/>
-        <v>mapLEDXY(11,4,0,0,10);</v>
-      </c>
-    </row>
-    <row r="204" spans="1:3">
+        <v>mapLEDXY(11,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>11</v>
       </c>
@@ -3990,10 +4197,10 @@
       </c>
       <c r="C204" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="205" spans="1:3">
+        <v>mapLEDXY(11,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>11</v>
       </c>
@@ -4002,10 +4209,10 @@
       </c>
       <c r="C205" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="206" spans="1:3">
+        <v>mapLEDXY(11,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>11</v>
       </c>
@@ -4014,10 +4221,10 @@
       </c>
       <c r="C206" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="207" spans="1:3">
+        <v>mapLEDXY(11,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>11</v>
       </c>
@@ -4026,10 +4233,10 @@
       </c>
       <c r="C207" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
+        <v>mapLEDXY(11,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>11</v>
       </c>
@@ -4038,10 +4245,10 @@
       </c>
       <c r="C208" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="209" spans="1:3">
+        <v>mapLEDXY(11,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>11</v>
       </c>
@@ -4050,10 +4257,10 @@
       </c>
       <c r="C209" t="str">
         <f t="shared" si="18"/>
-        <v/>
-      </c>
-    </row>
-    <row r="210" spans="1:3">
+        <v>mapLEDXY(11,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>11</v>
       </c>
@@ -4062,10 +4269,10 @@
       </c>
       <c r="C210" t="str">
         <f t="shared" si="18"/>
-        <v>mapLEDXY(11,11,0,0,10);</v>
-      </c>
-    </row>
-    <row r="211" spans="1:3">
+        <v>mapLEDXY(11,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>11</v>
       </c>
@@ -4074,10 +4281,10 @@
       </c>
       <c r="C211" t="str">
         <f t="shared" ref="C211:C214" si="19">IF(M14&gt;0,"mapLEDXY("&amp;A211&amp;","&amp;B211&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="212" spans="1:3">
+        <v>mapLEDXY(11,12,207,60,245);</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>11</v>
       </c>
@@ -4089,7 +4296,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" spans="1:3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>11</v>
       </c>
@@ -4101,7 +4308,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" spans="1:3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>11</v>
       </c>
@@ -4113,7 +4320,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" spans="1:3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>12</v>
       </c>
@@ -4125,7 +4332,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" spans="1:3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>12</v>
       </c>
@@ -4137,7 +4344,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" spans="1:3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>12</v>
       </c>
@@ -4149,7 +4356,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" spans="1:3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>12</v>
       </c>
@@ -4158,10 +4365,10 @@
       </c>
       <c r="C218" t="str">
         <f t="shared" si="20"/>
-        <v>mapLEDXY(12,3,0,0,10);</v>
-      </c>
-    </row>
-    <row r="219" spans="1:3">
+        <v>mapLEDXY(12,3,207,60,245);</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>12</v>
       </c>
@@ -4170,10 +4377,10 @@
       </c>
       <c r="C219" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="220" spans="1:3">
+        <v>mapLEDXY(12,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>12</v>
       </c>
@@ -4182,10 +4389,10 @@
       </c>
       <c r="C220" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="221" spans="1:3">
+        <v>mapLEDXY(12,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>12</v>
       </c>
@@ -4194,10 +4401,10 @@
       </c>
       <c r="C221" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="222" spans="1:3">
+        <v>mapLEDXY(12,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>12</v>
       </c>
@@ -4206,10 +4413,10 @@
       </c>
       <c r="C222" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="223" spans="1:3">
+        <v>mapLEDXY(12,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>12</v>
       </c>
@@ -4218,10 +4425,10 @@
       </c>
       <c r="C223" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="224" spans="1:3">
+        <v>mapLEDXY(12,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>12</v>
       </c>
@@ -4230,10 +4437,10 @@
       </c>
       <c r="C224" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="225" spans="1:3">
+        <v>mapLEDXY(12,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>12</v>
       </c>
@@ -4242,10 +4449,10 @@
       </c>
       <c r="C225" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="226" spans="1:3">
+        <v>mapLEDXY(12,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>12</v>
       </c>
@@ -4254,10 +4461,10 @@
       </c>
       <c r="C226" t="str">
         <f t="shared" si="20"/>
-        <v/>
-      </c>
-    </row>
-    <row r="227" spans="1:3">
+        <v>mapLEDXY(12,11,207,60,245);</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>12</v>
       </c>
@@ -4266,10 +4473,10 @@
       </c>
       <c r="C227" t="str">
         <f t="shared" si="20"/>
-        <v>mapLEDXY(12,12,0,0,10);</v>
-      </c>
-    </row>
-    <row r="228" spans="1:3">
+        <v/>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>12</v>
       </c>
@@ -4281,7 +4488,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" spans="1:3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>12</v>
       </c>
@@ -4293,7 +4500,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" spans="1:3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>12</v>
       </c>
@@ -4305,7 +4512,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" spans="1:3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>13</v>
       </c>
@@ -4317,7 +4524,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" spans="1:3">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>13</v>
       </c>
@@ -4329,7 +4536,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" spans="1:3">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>13</v>
       </c>
@@ -4338,10 +4545,10 @@
       </c>
       <c r="C233" t="str">
         <f t="shared" si="21"/>
-        <v>mapLEDXY(13,2,0,0,10);</v>
-      </c>
-    </row>
-    <row r="234" spans="1:3">
+        <v/>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>13</v>
       </c>
@@ -4353,7 +4560,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" spans="1:3">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>13</v>
       </c>
@@ -4362,10 +4569,10 @@
       </c>
       <c r="C235" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="236" spans="1:3">
+        <v>mapLEDXY(13,4,207,60,245);</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>13</v>
       </c>
@@ -4374,10 +4581,10 @@
       </c>
       <c r="C236" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="237" spans="1:3">
+        <v>mapLEDXY(13,5,207,60,245);</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>13</v>
       </c>
@@ -4386,10 +4593,10 @@
       </c>
       <c r="C237" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="238" spans="1:3">
+        <v>mapLEDXY(13,6,207,60,245);</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>13</v>
       </c>
@@ -4398,10 +4605,10 @@
       </c>
       <c r="C238" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="239" spans="1:3">
+        <v>mapLEDXY(13,7,207,60,245);</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>13</v>
       </c>
@@ -4410,10 +4617,10 @@
       </c>
       <c r="C239" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="240" spans="1:3">
+        <v>mapLEDXY(13,8,207,60,245);</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>13</v>
       </c>
@@ -4422,10 +4629,10 @@
       </c>
       <c r="C240" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="241" spans="1:3">
+        <v>mapLEDXY(13,9,207,60,245);</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>13</v>
       </c>
@@ -4434,10 +4641,10 @@
       </c>
       <c r="C241" t="str">
         <f t="shared" si="21"/>
-        <v/>
-      </c>
-    </row>
-    <row r="242" spans="1:3">
+        <v>mapLEDXY(13,10,207,60,245);</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>13</v>
       </c>
@@ -4449,7 +4656,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" spans="1:3">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>13</v>
       </c>
@@ -4461,7 +4668,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" spans="1:3">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>13</v>
       </c>
@@ -4470,10 +4677,10 @@
       </c>
       <c r="C244" t="str">
         <f t="shared" si="21"/>
-        <v>mapLEDXY(13,13,0,0,10);</v>
-      </c>
-    </row>
-    <row r="245" spans="1:3">
+        <v/>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>13</v>
       </c>
@@ -4485,7 +4692,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" spans="1:3">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>13</v>
       </c>
@@ -4497,7 +4704,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" spans="1:3">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>14</v>
       </c>
@@ -4509,7 +4716,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" spans="1:3">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>14</v>
       </c>
@@ -4518,10 +4725,10 @@
       </c>
       <c r="C248" t="str">
         <f t="shared" ref="C248:C262" si="22">IF(P3&gt;0,"mapLEDXY("&amp;A248&amp;","&amp;B248&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v>mapLEDXY(14,1,0,0,10);</v>
-      </c>
-    </row>
-    <row r="249" spans="1:3">
+        <v/>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>14</v>
       </c>
@@ -4533,7 +4740,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" spans="1:3">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>14</v>
       </c>
@@ -4545,7 +4752,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" spans="1:3">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>14</v>
       </c>
@@ -4557,7 +4764,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" spans="1:3">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>14</v>
       </c>
@@ -4569,7 +4776,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" spans="1:3">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>14</v>
       </c>
@@ -4581,7 +4788,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" spans="1:3">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>14</v>
       </c>
@@ -4593,7 +4800,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" spans="1:3">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>14</v>
       </c>
@@ -4605,7 +4812,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" spans="1:3">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>14</v>
       </c>
@@ -4617,7 +4824,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" spans="1:3">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>14</v>
       </c>
@@ -4629,7 +4836,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" spans="1:3">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>14</v>
       </c>
@@ -4641,7 +4848,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" spans="1:3">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>14</v>
       </c>
@@ -4653,7 +4860,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" spans="1:3">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>14</v>
       </c>
@@ -4665,7 +4872,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" spans="1:3">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>14</v>
       </c>
@@ -4674,10 +4881,10 @@
       </c>
       <c r="C261" t="str">
         <f t="shared" si="22"/>
-        <v>mapLEDXY(14,14,0,0,10);</v>
-      </c>
-    </row>
-    <row r="262" spans="1:3">
+        <v/>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>14</v>
       </c>
@@ -4689,7 +4896,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" spans="1:3">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>15</v>
       </c>
@@ -4698,10 +4905,10 @@
       </c>
       <c r="C263" t="str">
         <f>IF(Q2&gt;0,"mapLEDXY("&amp;A263&amp;","&amp;B263&amp;","&amp;$A$21&amp;","&amp;$B$21&amp;","&amp;$C$21&amp;");","")</f>
-        <v>mapLEDXY(15,0,0,0,10);</v>
-      </c>
-    </row>
-    <row r="264" spans="1:3">
+        <v/>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>15</v>
       </c>
@@ -4713,7 +4920,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" spans="1:3">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>15</v>
       </c>
@@ -4725,7 +4932,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" spans="1:3">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>15</v>
       </c>
@@ -4737,7 +4944,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" spans="1:3">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>15</v>
       </c>
@@ -4749,7 +4956,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" spans="1:3">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>15</v>
       </c>
@@ -4761,7 +4968,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>15</v>
       </c>
@@ -4773,7 +4980,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" spans="1:3">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>15</v>
       </c>
@@ -4785,7 +4992,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" spans="1:3">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>15</v>
       </c>
@@ -4797,7 +5004,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" spans="1:3">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>15</v>
       </c>
@@ -4809,7 +5016,7 @@
         <v/>
       </c>
     </row>
-    <row r="273" spans="1:3">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273">
         <v>15</v>
       </c>
@@ -4821,7 +5028,7 @@
         <v/>
       </c>
     </row>
-    <row r="274" spans="1:3">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274">
         <v>15</v>
       </c>
@@ -4833,7 +5040,7 @@
         <v/>
       </c>
     </row>
-    <row r="275" spans="1:3">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275">
         <v>15</v>
       </c>
@@ -4845,7 +5052,7 @@
         <v/>
       </c>
     </row>
-    <row r="276" spans="1:3">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276">
         <v>15</v>
       </c>
@@ -4857,7 +5064,7 @@
         <v/>
       </c>
     </row>
-    <row r="277" spans="1:3">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277">
         <v>15</v>
       </c>
@@ -4869,7 +5076,7 @@
         <v/>
       </c>
     </row>
-    <row r="278" spans="1:3">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A278">
         <v>15</v>
       </c>
@@ -4878,12 +5085,12 @@
       </c>
       <c r="C278" t="str">
         <f t="shared" si="23"/>
-        <v>mapLEDXY(15,15,0,0,10);</v>
+        <v/>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:Q17">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">
